--- a/biology/Zoologie/Gecarcinucidae/Gecarcinucidae.xlsx
+++ b/biology/Zoologie/Gecarcinucidae/Gecarcinucidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Gecarcinucidae sont une famille de crabes, la seule de la super-famille des Gecarcinucoidea. Elle comprend 350 espèces dans 58 genres. Parathelphusidae en est synonyme[1]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Gecarcinucidae sont une famille de crabes, la seule de la super-famille des Gecarcinucoidea. Elle comprend 350 espèces dans 58 genres. Parathelphusidae en est synonyme
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (29 juin 2016)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (29 juin 2016) :
 genre Adeleana Bott, 1969
 genre Arachnothelphusa Ng, 1991
 genre Austrothelphusa Bott, 1969
@@ -603,7 +617,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rathbun, 1904 : Les crabes d’eau douce (Potamonidae). Nouvelles Archives du Muséum d’Histoire naturelle, vol. 46, p. 225–312.</t>
         </is>
@@ -633,7 +649,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ng, Guinot &amp; Davie, 2008 : Systema Brachyurorum: Part I. An annotated checklist of extant brachyuran crabs of the world. Raffles Bulletin of Zoology Supplement, n. 17, p. 1–286.
 De Grave &amp; al., 2009 : A Classification of Living and Fossil Genera of Decapod Crustaceans. Raffles Bulletin of Zoology Supplement, n. 21, p. 1-109.</t>
